--- a/downloads/template_mapel.xlsx
+++ b/downloads/template_mapel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -22,7 +22,7 @@
     <t>Kelompok</t>
   </si>
   <si>
-    <t>Deskripsi</t>
+    <t>Kode Mapel</t>
   </si>
 </sst>
 </file>
@@ -70,6 +70,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -117,7 +120,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -152,7 +155,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,9 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -387,7 +388,7 @@
   <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A: Kelompok A_x000a_B: Kelompok B_x000a_C: Kelompok C" sqref="A1:A1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Nama Mapel" sqref="B1:B1048576"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Deskripsi Mapel (opsional)" sqref="C1:C1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Kode Mapel" sqref="C1:C1048576"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
